--- a/fuentes/contenidos/grado09/guion13/escaleta CN_09_13_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion13/escaleta CN_09_13_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="3105"/>
   </bookViews>
@@ -14,9 +19,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$36</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1072,16 +1077,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,24 +1144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1251,7 +1256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1462,9 +1467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,94 +1497,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="24" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5120,16 +5125,10 @@
     <row r="300" ht="14.45" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="301" ht="14.45" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U36">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5144,6 +5143,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I32:I36">

--- a/fuentes/contenidos/grado09/guion13/escaleta CN_09_13_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion13/escaleta CN_09_13_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion13\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="3105"/>
   </bookViews>
@@ -19,14 +14,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="262">
   <si>
     <t>Asignatura</t>
   </si>
@@ -434,18 +429,9 @@
     <t>Interactivo que explica el funcionamiento de los calentadores eléctricos y de combustión</t>
   </si>
   <si>
-    <t>El motor diesel</t>
-  </si>
-  <si>
-    <t>Interactivo con aminación que explica el funcionamiento del motor diesel</t>
-  </si>
-  <si>
     <t>Las transformaciones energéticas en la tecnología</t>
   </si>
   <si>
-    <t>Interactivo acerca de la energía y la utilidad tecnológica de transformarla</t>
-  </si>
-  <si>
     <t>Se resume qué es energía, se menciona la ley de transformación, y se justifica la necesidad de transformar la energía en las aplicaciones tecnológicas</t>
   </si>
   <si>
@@ -461,39 +447,24 @@
     <t>La relación entre la tecnología y la transformación de la energía</t>
   </si>
   <si>
-    <t>Actividad acerca de la relación entre la tecnología y la transformación de la energia</t>
-  </si>
-  <si>
     <t>Actividad para reforzar lo aprendido sobre tecnología y transformación de energía</t>
   </si>
   <si>
     <t>Los instrumentos musicales y las ondas</t>
   </si>
   <si>
-    <t>Actividad acerca de los intrumentos musicales y el tipo de onda que producen</t>
-  </si>
-  <si>
     <t>Contenedores para clasificar diferentes instrumentos según el tipo de onda producida.</t>
   </si>
   <si>
     <t>Se hacen dos menús principales: instrumentos que funcionan con ondas viajeras, como los instrumentos de viento, y los que producen ondas estacionarias: cuerdas, percusión, etc. Recordar que es este caso se tiene la llamada energía acústica que en el fondo es también mecánica, y viene de la energía mecánica de los músculos. Para resaltar la conversión, se puede mencionar, sin profundizzr mucho, que la energía mecánica de los músculos viene de la energía química de la comida.</t>
   </si>
   <si>
-    <t>Actividad acerca del funcionamiento de los bombillos incandescentes</t>
-  </si>
-  <si>
-    <t>Actividad acerca del funcionamiento de los bombillos fluorescentes</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los bombillos</t>
   </si>
   <si>
     <t>Actividad acerca del funcionamiento de los bombillos</t>
   </si>
   <si>
-    <t>Actividad acerca del funcionamiento de los calentadores que usan combustible</t>
-  </si>
-  <si>
     <t>Actividad acerca del funcionamiento de los calentadores y los procesos de conversión de energía implicados</t>
   </si>
   <si>
@@ -638,12 +609,6 @@
     <t>Actividad que propone relacionar las diferentes fases del funcionamiento de un motor de cuatro tiempos con su descripción</t>
   </si>
   <si>
-    <t>Las máquinas y los motores que usan</t>
-  </si>
-  <si>
-    <t>Actividad que propone identificar qué tipo de motor usan diferentes máquinas</t>
-  </si>
-  <si>
     <t>El funcionamiento de los motores eléctricos</t>
   </si>
   <si>
@@ -813,6 +778,36 @@
   </si>
   <si>
     <t>Orientar la investigación a formas de energía nuevas.</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la relación entre la tecnología y la transformación de la energÍa</t>
+  </si>
+  <si>
+    <t>Interactivo acerca de la energía y la utilidad  de la tecnología para transformarla</t>
+  </si>
+  <si>
+    <t>Interactivo con animación que explica el funcionamiento del motor diésel</t>
+  </si>
+  <si>
+    <t>Los motores que usan diferentes máquinas</t>
+  </si>
+  <si>
+    <t>Actividad que propone identificar qué tipo de motor usan distintos tipos de máquinas</t>
+  </si>
+  <si>
+    <t>Los instrumentos musicales: obtención de energía acústica</t>
+  </si>
+  <si>
+    <t>Actividad acerca de los instrumentos musicales y el tipo de onda que producen</t>
+  </si>
+  <si>
+    <t>Actividad acerca de los tipos de bombillo y su funcionamiento</t>
+  </si>
+  <si>
+    <t>Actividad que trata sobre la transformación de energía que se lleva a cabo en los bombillos</t>
+  </si>
+  <si>
+    <t>Actividad que trata sobre el funcionamiento de los calentadores</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,7 +1251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1467,9 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7:K25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1589,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>127</v>
@@ -1602,7 +1597,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="32"/>
       <c r="G3" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="34">
         <v>1</v>
@@ -1611,7 +1606,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>20</v>
@@ -1624,7 +1619,7 @@
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>19</v>
@@ -1633,16 +1628,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1653,7 +1648,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>127</v>
@@ -1661,7 +1656,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="32"/>
       <c r="G4" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H4" s="34">
         <v>2</v>
@@ -1670,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>20</v>
@@ -1683,7 +1678,7 @@
         <v>28</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>19</v>
@@ -1692,16 +1687,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1712,17 +1707,17 @@
         <v>122</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="34">
         <v>3</v>
@@ -1731,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>20</v>
@@ -1751,16 +1746,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1771,7 +1766,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>123</v>
@@ -1788,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1801,7 +1796,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1810,16 +1805,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1830,19 +1825,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1851,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1862,25 +1857,25 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1891,19 +1886,19 @@
         <v>122</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1912,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1927,19 +1922,19 @@
         <v>19</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1950,19 +1945,19 @@
         <v>122</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -1971,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1982,25 +1977,25 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2011,19 +2006,19 @@
         <v>122</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2032,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2047,19 +2042,19 @@
         <v>19</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2070,19 +2065,19 @@
         <v>122</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2091,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2102,25 +2097,25 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2131,19 +2126,19 @@
         <v>122</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2152,7 +2147,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2163,25 +2158,25 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2192,19 +2187,19 @@
         <v>122</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2213,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2228,19 +2223,19 @@
         <v>19</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2251,19 +2246,19 @@
         <v>122</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2272,7 +2267,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2283,25 +2278,25 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2312,19 +2307,19 @@
         <v>122</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2333,7 +2328,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2346,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2355,16 +2350,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2375,19 +2370,17 @@
         <v>122</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>157</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2396,7 +2389,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2407,25 +2400,25 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2436,19 +2429,17 @@
         <v>122</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>157</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2457,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2470,7 +2461,7 @@
         <v>45</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2479,16 +2470,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2499,31 +2490,29 @@
         <v>122</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>157</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>8</v>
@@ -2535,19 +2524,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2558,17 +2547,17 @@
         <v>122</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2577,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2597,16 +2586,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2617,10 +2606,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
@@ -2647,7 +2636,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2656,16 +2645,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2676,15 +2665,15 @@
         <v>122</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2693,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2706,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2715,16 +2704,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2735,15 +2724,15 @@
         <v>122</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2752,7 +2741,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2765,7 +2754,7 @@
         <v>33</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>20</v>
@@ -2774,16 +2763,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2794,17 +2783,17 @@
         <v>122</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>125</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2813,7 +2802,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2833,16 +2822,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2853,7 +2842,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>124</v>
@@ -2883,7 +2872,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -2892,16 +2881,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2912,7 +2901,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>124</v>
@@ -2920,7 +2909,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2929,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2940,25 +2929,25 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2969,7 +2958,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>124</v>
@@ -2977,7 +2966,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -2986,7 +2975,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2999,7 +2988,7 @@
         <v>27</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3008,16 +2997,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3028,7 +3017,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>124</v>
@@ -3036,7 +3025,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3045,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3058,7 +3047,7 @@
         <v>32</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>20</v>
@@ -3067,16 +3056,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3087,17 +3076,17 @@
         <v>122</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>124</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3106,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3126,16 +3115,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3146,7 +3135,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>126</v>
@@ -3176,7 +3165,7 @@
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>19</v>
@@ -3185,16 +3174,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3205,7 +3194,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>126</v>
@@ -3213,7 +3202,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3222,7 +3211,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3235,7 +3224,7 @@
         <v>120</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>19</v>
@@ -3244,16 +3233,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3264,17 +3253,17 @@
         <v>122</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>126</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3283,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3303,16 +3292,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3323,15 +3312,15 @@
         <v>122</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H32" s="37">
         <v>30</v>
@@ -3340,7 +3329,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K32" s="38" t="s">
         <v>20</v>
@@ -3350,7 +3339,7 @@
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9" t="s">
@@ -3360,16 +3349,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3380,15 +3369,15 @@
         <v>122</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="16" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H33" s="39">
         <v>31</v>
@@ -3397,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K33" s="38" t="s">
         <v>20</v>
@@ -3407,10 +3396,10 @@
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P33" s="9" t="s">
         <v>19</v>
@@ -3419,16 +3408,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3439,15 +3428,15 @@
         <v>122</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="H34" s="39">
         <v>32</v>
@@ -3456,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K34" s="38" t="s">
         <v>20</v>
@@ -3484,15 +3473,15 @@
         <v>122</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H35" s="37">
         <v>33</v>
@@ -3501,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K35" s="38" t="s">
         <v>20</v>
@@ -3521,16 +3510,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3541,15 +3530,15 @@
         <v>122</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H36" s="37">
         <v>34</v>
@@ -3558,7 +3547,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K36" s="38" t="s">
         <v>20</v>
@@ -3578,16 +3567,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5125,7 +5114,7 @@
     <row r="300" ht="14.45" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="301" ht="14.45" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:U36">
+  <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
